--- a/experiment_results/summary.xlsx
+++ b/experiment_results/summary.xlsx
@@ -4,34 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>正四边形法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正三角形法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我们的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正三角形法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,12 +80,52 @@
     <t>3次信号覆盖率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>等边三角形法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等边三角形法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正四边形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等边三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正三角形法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexagon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +143,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,18 +172,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -334,7 +381,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正三角形法</c:v>
+                  <c:v>等边三角形法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -483,11 +530,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="812145392"/>
-        <c:axId val="812139952"/>
+        <c:axId val="1005654720"/>
+        <c:axId val="1005660160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="812145392"/>
+        <c:axId val="1005654720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,7 +632,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812139952"/>
+        <c:crossAx val="1005660160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -593,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="812139952"/>
+        <c:axId val="1005660160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812145392"/>
+        <c:crossAx val="1005654720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,11 +1099,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="956299456"/>
-        <c:axId val="956305984"/>
+        <c:axId val="1005654176"/>
+        <c:axId val="1005655264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="956299456"/>
+        <c:axId val="1005654176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1202,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956305984"/>
+        <c:crossAx val="1005655264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="956305984"/>
+        <c:axId val="1005655264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956299456"/>
+        <c:crossAx val="1005654176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +1610,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>正三角形法</c:v>
+                  <c:v>等边三角形法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1878,11 +1925,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="960964544"/>
-        <c:axId val="960966720"/>
+        <c:axId val="1005657984"/>
+        <c:axId val="1005661248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="960964544"/>
+        <c:axId val="1005657984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +2028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960966720"/>
+        <c:crossAx val="1005661248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +2036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="960966720"/>
+        <c:axId val="1005661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960964544"/>
+        <c:crossAx val="1005657984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4338,7 +4385,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A35" sqref="A35:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5758,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6623,7 +6670,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8091,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -8363,8 +8410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8377,24 +8424,24 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>7397</v>
@@ -8406,7 +8453,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>9624</v>
@@ -8418,7 +8465,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>4759</v>
@@ -8429,10 +8476,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>7766</v>
@@ -8444,7 +8491,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>4068</v>
@@ -8456,7 +8503,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>15155</v>
@@ -8472,4 +8519,1817 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="G1" s="4">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="J1" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="N1" s="4">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="O1" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R1" s="4">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="S1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.996</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.9768</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.9587</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.9839</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.9919</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.996</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.9385</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.9385</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.9667</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.9113</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>0.9244</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.98740000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.9113</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.8659</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.98580000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.9899</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.9798</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.9829</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f>AVERAGE(A1,E1,I1,M1,Q1,A12,E12,I12,M12,Q12,A23,E23,I23,M23,Q23)</f>
+        <v>0.99119999999999986</v>
+      </c>
+      <c r="C36" s="2">
+        <f>AVERAGE(B1,F1,J1,N1,R1,B12,F12,J12,N12,R12,B23,F23,J23,N23,R23)</f>
+        <v>0.99201333333333319</v>
+      </c>
+      <c r="D36" s="2">
+        <f>AVERAGE(C1,G1,K1,O1,S1,C12,G12,K12,O12,S12,C23,G23,K23,O23,S23)</f>
+        <v>0.99949333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f>AVERAGE(A2,E2,I2,M2,Q2,A13,E13,I13,M13,Q13,A24,E24,I24,M24,Q24)</f>
+        <v>0.98033999999999999</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:C45" si="0">AVERAGE(B2,F2,J2,N2,R2,B13,F13,J13,N13,R13,B24,F24,J24,N24,R24)</f>
+        <v>0.97112666666666658</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37:D45" si="1">AVERAGE(C2,G2,K2,O2,S2,C13,G13,K13,O13,S13,C24,G24,K24,O24,S24)</f>
+        <v>0.99949333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f>AVERAGE(A3,E3,I3,M3,Q3,A14,E14,I14,M14,Q14,A25,E25,I25,M25,Q25)</f>
+        <v>0.95508666666666664</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9691333333333334</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99924666666666662</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f>AVERAGE(A4,E4,I4,M4,Q4,A15,E15,I15,M15,Q15,A26,E26,I26,M26,Q26)</f>
+        <v>0.97186666666666643</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96884000000000015</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99881333333333322</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <f>AVERAGE(A5,E5,I5,M5,Q5,A16,E16,I16,M16,Q16,A27,E27,I27,M27,Q27)</f>
+        <v>0.95865333333333325</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95930666666666653</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99870666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f>AVERAGE(A6,E6,I6,M6,Q6,A17,E17,I17,M17,Q17,A28,E28,I28,M28,Q28)</f>
+        <v>0.96906000000000003</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96379333333333339</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99846000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <f t="shared" ref="B37:B45" si="2">AVERAGE(A7,E7,I7,M7,Q7,A18,E18,I18,M18,Q18,A29,E29,I29,M29,Q29)</f>
+        <v>0.95797999999999994</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96220666666666665</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99764666666666668</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96501999999999988</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99640666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97449333333333332</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95858666666666659</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99592000000000014</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96533333333333327</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94323999999999986</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99557333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>17.866666666666667</v>
+      </c>
+      <c r="C2">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99119999999999986</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.99201333333333319</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.99949333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27.733333333333334</v>
+      </c>
+      <c r="B3">
+        <v>25.6</v>
+      </c>
+      <c r="C3">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98033999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.97112666666666658</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99949333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>34.6</v>
+      </c>
+      <c r="B4">
+        <v>34.866666666666667</v>
+      </c>
+      <c r="C4">
+        <v>23.4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.95508666666666664</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.9691333333333334</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.99924666666666662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>48.466666666666669</v>
+      </c>
+      <c r="B5">
+        <v>47.4</v>
+      </c>
+      <c r="C5">
+        <v>30.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.97186666666666643</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.96884000000000015</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.99881333333333322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>56.06666666666667</v>
+      </c>
+      <c r="B6">
+        <v>55.6</v>
+      </c>
+      <c r="C6">
+        <v>38.533333333333331</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95865333333333325</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.95930666666666653</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.99870666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>87.066666666666663</v>
+      </c>
+      <c r="B7">
+        <v>71.533333333333331</v>
+      </c>
+      <c r="C7">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96906000000000003</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.96379333333333339</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.99846000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>101.26666666666667</v>
+      </c>
+      <c r="B8">
+        <v>82.533333333333331</v>
+      </c>
+      <c r="C8">
+        <v>54.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.95797999999999994</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.96220666666666665</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.99764666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>129.93333333333334</v>
+      </c>
+      <c r="B9">
+        <v>102.4</v>
+      </c>
+      <c r="C9">
+        <v>62.06666666666667</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.96501999999999988</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.99640666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="B10">
+        <v>113.6</v>
+      </c>
+      <c r="C10">
+        <v>70.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.97449333333333332</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.95858666666666659</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.99592000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="B11">
+        <v>113.6</v>
+      </c>
+      <c r="C11">
+        <v>77.933333333333337</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.96533333333333327</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.94323999999999986</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.99557333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiment_results/summary.xlsx
+++ b/experiment_results/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10440" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,11 +530,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1005654720"/>
-        <c:axId val="1005660160"/>
+        <c:axId val="-126160752"/>
+        <c:axId val="-126161840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1005654720"/>
+        <c:axId val="-126160752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +632,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005660160"/>
+        <c:crossAx val="-126161840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005660160"/>
+        <c:axId val="-126161840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005654720"/>
+        <c:crossAx val="-126160752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,11 +1099,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1005654176"/>
-        <c:axId val="1005655264"/>
+        <c:axId val="-126156944"/>
+        <c:axId val="-126166192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1005654176"/>
+        <c:axId val="-126156944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005655264"/>
+        <c:crossAx val="-126166192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005655264"/>
+        <c:axId val="-126166192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005654176"/>
+        <c:crossAx val="-126156944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1925,11 +1925,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1005657984"/>
-        <c:axId val="1005661248"/>
+        <c:axId val="-126161296"/>
+        <c:axId val="-126150960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1005657984"/>
+        <c:axId val="-126161296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005661248"/>
+        <c:crossAx val="-126150960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2036,7 +2036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005661248"/>
+        <c:axId val="-126150960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005657984"/>
+        <c:crossAx val="-126161296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4385,7 +4385,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C44"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5963,7 +5963,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6669,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8526,7 +8526,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D45"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <f t="shared" ref="B37:B45" si="2">AVERAGE(A7,E7,I7,M7,Q7,A18,E18,I18,M18,Q18,A29,E29,I29,M29,Q29)</f>
+        <f t="shared" ref="B42:B45" si="2">AVERAGE(A7,E7,I7,M7,Q7,A18,E18,I18,M18,Q18,A29,E29,I29,M29,Q29)</f>
         <v>0.95797999999999994</v>
       </c>
       <c r="C42" s="2">
